--- a/Data/Telecom Costs.xlsx
+++ b/Data/Telecom Costs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margaretpearce/Documents/Graduate Coursework/LIS 677/Project/Raw data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margaretpearce/Documents/Graduate Coursework/LIS 677/Project/lis677-project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="8300" yWindow="460" windowWidth="18900" windowHeight="16100" tabRatio="500" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Mobile cellular sub-basket 2014" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="22">
   <si>
     <t>Singapore</t>
   </si>
@@ -52,36 +52,21 @@
     <t>Brunei Darussalam</t>
   </si>
   <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
     <t>Cambodia</t>
   </si>
   <si>
     <t>Indonesia</t>
   </si>
   <si>
-    <t>Iraq</t>
-  </si>
-  <si>
     <t>Lao PDR</t>
   </si>
   <si>
     <t>Malaysia</t>
   </si>
   <si>
-    <t>Maldives</t>
-  </si>
-  <si>
     <t>Myanmar</t>
   </si>
   <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
     <t>Philippines</t>
   </si>
   <si>
@@ -89,9 +74,6 @@
   </si>
   <si>
     <t>Timor-Leste</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
   </si>
   <si>
     <t>Vietnam</t>
@@ -427,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -454,284 +436,182 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>1.68</v>
+        <v>0.71</v>
       </c>
       <c r="C2">
-        <v>1.42</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="D2">
-        <v>4.01</v>
+        <v>29.6</v>
       </c>
       <c r="E2">
-        <v>1009</v>
+        <v>32976</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.71</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="C3">
-        <v>19.399999999999999</v>
+        <v>6.82</v>
       </c>
       <c r="D3">
-        <v>29.6</v>
+        <v>17.62</v>
       </c>
       <c r="E3">
-        <v>32976</v>
+        <v>949</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>8.6199999999999992</v>
+        <v>1.69</v>
       </c>
       <c r="C4">
-        <v>6.82</v>
+        <v>5.05</v>
       </c>
       <c r="D4">
-        <v>17.62</v>
+        <v>13.67</v>
       </c>
       <c r="E4">
-        <v>949</v>
+        <v>3576</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>1.69</v>
+        <v>3.11</v>
       </c>
       <c r="C5">
-        <v>5.05</v>
+        <v>3.76</v>
       </c>
       <c r="D5">
-        <v>13.67</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E5">
-        <v>3576</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>1.8</v>
+        <v>0.68</v>
       </c>
       <c r="C6">
-        <v>10.07</v>
+        <v>5.87</v>
       </c>
       <c r="D6">
-        <v>19.61</v>
+        <v>12.08</v>
       </c>
       <c r="E6">
-        <v>6713</v>
+        <v>10420</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>3.11</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>3.76</v>
+        <v>4.84</v>
       </c>
       <c r="D7">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="E7">
-        <v>1449</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.68</v>
+        <v>3.76</v>
       </c>
       <c r="C8">
-        <v>5.87</v>
+        <v>10.24</v>
       </c>
       <c r="D8">
-        <v>12.08</v>
+        <v>23.47</v>
       </c>
       <c r="E8">
-        <v>10420</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>1.23</v>
+        <v>0.19</v>
       </c>
       <c r="C9">
-        <v>5.73</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="D9">
-        <v>7.46</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="E9">
-        <v>5594</v>
+        <v>53986</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="C10">
-        <v>3.16</v>
+        <v>7.83</v>
       </c>
       <c r="D10">
-        <v>8.08</v>
+        <v>19.489999999999998</v>
       </c>
       <c r="E10">
-        <v>3766</v>
+        <v>5335</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>4.24</v>
       </c>
       <c r="C11">
-        <v>4.84</v>
+        <v>14.04</v>
       </c>
       <c r="D11">
-        <v>16.7</v>
+        <v>20.84</v>
+      </c>
+      <c r="E11">
+        <v>3976</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>1.88</v>
+        <v>3.12</v>
       </c>
       <c r="C12">
-        <v>2.12</v>
+        <v>4.53</v>
       </c>
       <c r="D12">
-        <v>7.41</v>
+        <v>11.18</v>
       </c>
       <c r="E12">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>3.76</v>
-      </c>
-      <c r="C13">
-        <v>10.24</v>
-      </c>
-      <c r="D13">
-        <v>23.47</v>
-      </c>
-      <c r="E13">
-        <v>3267</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>0.19</v>
-      </c>
-      <c r="C14">
-        <v>8.6300000000000008</v>
-      </c>
-      <c r="D14">
-        <v>9.0399999999999991</v>
-      </c>
-      <c r="E14">
-        <v>53986</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>1.76</v>
-      </c>
-      <c r="C15">
-        <v>7.83</v>
-      </c>
-      <c r="D15">
-        <v>19.489999999999998</v>
-      </c>
-      <c r="E15">
-        <v>5335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>4.24</v>
-      </c>
-      <c r="C16">
-        <v>14.04</v>
-      </c>
-      <c r="D16">
-        <v>20.84</v>
-      </c>
-      <c r="E16">
-        <v>3976</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>8.98</v>
-      </c>
-      <c r="C17">
-        <v>23.4</v>
-      </c>
-      <c r="D17">
-        <v>19.75</v>
-      </c>
-      <c r="E17">
-        <v>3127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>3.12</v>
-      </c>
-      <c r="C18">
-        <v>4.53</v>
-      </c>
-      <c r="D18">
-        <v>11.18</v>
-      </c>
-      <c r="E18">
         <v>1738</v>
       </c>
     </row>
@@ -742,10 +622,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A17" activeCellId="5" sqref="A2:XFD2 A6:XFD6 A9:XFD9 A10:XFD10 A12:XFD12 A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -764,397 +644,259 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>5.28</v>
+        <v>1.87</v>
       </c>
       <c r="C2">
-        <v>4.4400000000000004</v>
+        <v>51.3</v>
       </c>
       <c r="D2">
-        <v>12.59</v>
+        <v>78.28</v>
       </c>
       <c r="E2">
-        <v>0.25</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>1009</v>
+        <v>32976</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>1.87</v>
+        <v>12.64</v>
       </c>
       <c r="C3">
-        <v>51.3</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>78.28</v>
+        <v>25.83</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>32976</v>
+        <v>949</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>12.64</v>
+        <v>3.11</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>9.27</v>
       </c>
       <c r="D4">
-        <v>25.83</v>
+        <v>25.09</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>949</v>
+        <v>3576</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>3.11</v>
+        <v>11.84</v>
       </c>
       <c r="C5">
-        <v>9.27</v>
+        <v>14.29</v>
       </c>
       <c r="D5">
-        <v>25.09</v>
+        <v>36.85</v>
       </c>
       <c r="E5">
         <v>0.5</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G5">
-        <v>3576</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>34.49</v>
+        <v>3.1</v>
       </c>
       <c r="C6">
-        <v>192.97</v>
+        <v>26.89</v>
       </c>
       <c r="D6">
-        <v>375.98</v>
+        <v>55.36</v>
       </c>
       <c r="E6">
-        <v>0.26</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G6">
-        <v>6713</v>
+        <v>10420</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>11.84</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>14.29</v>
+        <v>21.5</v>
       </c>
       <c r="D7">
-        <v>36.85</v>
+        <v>74.22</v>
       </c>
       <c r="E7">
         <v>0.5</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7">
-        <v>1449</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>3.1</v>
+        <v>8.27</v>
       </c>
       <c r="C8">
-        <v>26.89</v>
+        <v>22.5</v>
       </c>
       <c r="D8">
-        <v>55.36</v>
+        <v>51.59</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G8">
-        <v>10420</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>2.94</v>
+        <v>0.7</v>
       </c>
       <c r="C9">
-        <v>13.71</v>
+        <v>31.49</v>
       </c>
       <c r="D9">
-        <v>17.84</v>
+        <v>32.97</v>
       </c>
       <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
       </c>
       <c r="G9">
-        <v>5594</v>
+        <v>53986</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>2.2799999999999998</v>
+        <v>3.63</v>
       </c>
       <c r="C10">
-        <v>7.15</v>
+        <v>16.13</v>
       </c>
       <c r="D10">
-        <v>18.260000000000002</v>
+        <v>40.14</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G10">
-        <v>3766</v>
+        <v>5335</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>14.79</v>
       </c>
       <c r="C11">
-        <v>21.5</v>
+        <v>49</v>
       </c>
       <c r="D11">
-        <v>74.22</v>
+        <v>72.75</v>
       </c>
       <c r="E11">
-        <v>0.5</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>3976</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>4.3600000000000003</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>4.9400000000000004</v>
+        <v>2.89</v>
       </c>
       <c r="D12">
-        <v>17.22</v>
+        <v>7.15</v>
       </c>
       <c r="E12">
+        <v>2.5</v>
+      </c>
+      <c r="F12">
         <v>1</v>
       </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
       <c r="G12">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>8.27</v>
-      </c>
-      <c r="C13">
-        <v>22.5</v>
-      </c>
-      <c r="D13">
-        <v>51.59</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13">
-        <v>3267</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>0.7</v>
-      </c>
-      <c r="C14">
-        <v>31.49</v>
-      </c>
-      <c r="D14">
-        <v>32.97</v>
-      </c>
-      <c r="E14">
-        <v>100</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14">
-        <v>53986</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>3.63</v>
-      </c>
-      <c r="C15">
-        <v>16.13</v>
-      </c>
-      <c r="D15">
-        <v>40.14</v>
-      </c>
-      <c r="E15">
-        <v>6</v>
-      </c>
-      <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15">
-        <v>5335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>14.79</v>
-      </c>
-      <c r="C16">
-        <v>49</v>
-      </c>
-      <c r="D16">
-        <v>72.75</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>6</v>
-      </c>
-      <c r="G16">
-        <v>3976</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>23.52</v>
-      </c>
-      <c r="C17">
-        <v>61.29</v>
-      </c>
-      <c r="D17">
-        <v>51.74</v>
-      </c>
-      <c r="E17">
-        <v>0.25</v>
-      </c>
-      <c r="F17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17">
-        <v>3127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>2.89</v>
-      </c>
-      <c r="D18">
-        <v>7.15</v>
-      </c>
-      <c r="E18">
-        <v>2.5</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
         <v>1738</v>
       </c>
     </row>
@@ -1165,10 +907,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A17" activeCellId="5" sqref="A2:XFD2 A6:XFD6 A9:XFD9 A10:XFD10 A12:XFD12 A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1187,112 +929,121 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>3.49</v>
+        <v>0.8</v>
       </c>
       <c r="C2">
-        <v>2.93</v>
+        <v>22.1</v>
       </c>
       <c r="D2">
-        <v>8.31</v>
+        <v>33.72</v>
       </c>
       <c r="E2">
-        <v>1009</v>
+        <v>32976</v>
       </c>
       <c r="F2">
-        <v>500</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="C3">
-        <v>22.1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>33.72</v>
+        <v>5.17</v>
       </c>
       <c r="E3">
-        <v>32976</v>
+        <v>949</v>
       </c>
       <c r="F3">
-        <v>2048</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>2.5299999999999998</v>
+        <v>1.56</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="D4">
-        <v>5.17</v>
+        <v>12.54</v>
       </c>
       <c r="E4">
-        <v>949</v>
+        <v>3576</v>
       </c>
       <c r="F4">
-        <v>600</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>1.56</v>
+        <v>4.12</v>
       </c>
       <c r="C5">
-        <v>4.6399999999999997</v>
+        <v>4.97</v>
       </c>
       <c r="D5">
-        <v>12.54</v>
+        <v>12.82</v>
       </c>
       <c r="E5">
-        <v>3576</v>
+        <v>1449</v>
       </c>
       <c r="F5">
-        <v>1624</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.99</v>
+      </c>
+      <c r="C6">
+        <v>8.56</v>
+      </c>
+      <c r="D6">
+        <v>17.61</v>
+      </c>
+      <c r="E6">
+        <v>10420</v>
+      </c>
+      <c r="F6">
+        <v>800</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>4.12</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>4.97</v>
+        <v>10.16</v>
       </c>
       <c r="D7">
-        <v>12.82</v>
-      </c>
-      <c r="E7">
-        <v>1449</v>
+        <v>35.07</v>
       </c>
       <c r="F7">
         <v>1024</v>
@@ -1300,215 +1051,101 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.99</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="C8">
-        <v>8.56</v>
+        <v>6.73</v>
       </c>
       <c r="D8">
-        <v>17.61</v>
+        <v>15.44</v>
       </c>
       <c r="E8">
-        <v>10420</v>
+        <v>3267</v>
       </c>
       <c r="F8">
-        <v>800</v>
+        <v>700</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>2.2000000000000002</v>
+        <v>0.35</v>
       </c>
       <c r="C9">
-        <v>10.27</v>
+        <v>15.71</v>
       </c>
       <c r="D9">
-        <v>13.36</v>
+        <v>16.45</v>
       </c>
       <c r="E9">
-        <v>5594</v>
+        <v>53986</v>
       </c>
       <c r="F9">
-        <v>700</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>2.1</v>
+        <v>1.38</v>
       </c>
       <c r="C10">
-        <v>6.6</v>
+        <v>6.13</v>
       </c>
       <c r="D10">
-        <v>16.86</v>
+        <v>15.24</v>
       </c>
       <c r="E10">
-        <v>3766</v>
+        <v>5335</v>
       </c>
       <c r="F10">
-        <v>1024</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>3.02</v>
       </c>
       <c r="C11">
-        <v>10.16</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>35.07</v>
+        <v>14.8</v>
+      </c>
+      <c r="E11">
+        <v>3976</v>
       </c>
       <c r="F11">
-        <v>1024</v>
+        <v>800</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>4.37</v>
+        <v>1.96</v>
       </c>
       <c r="C12">
-        <v>4.95</v>
+        <v>2.84</v>
       </c>
       <c r="D12">
-        <v>17.25</v>
+        <v>7.01</v>
       </c>
       <c r="E12">
-        <v>1359</v>
+        <v>1738</v>
       </c>
       <c r="F12">
-        <v>3072</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="C13">
-        <v>6.73</v>
-      </c>
-      <c r="D13">
-        <v>15.44</v>
-      </c>
-      <c r="E13">
-        <v>3267</v>
-      </c>
-      <c r="F13">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>0.35</v>
-      </c>
-      <c r="C14">
-        <v>15.71</v>
-      </c>
-      <c r="D14">
-        <v>16.45</v>
-      </c>
-      <c r="E14">
-        <v>53986</v>
-      </c>
-      <c r="F14">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>1.38</v>
-      </c>
-      <c r="C15">
-        <v>6.13</v>
-      </c>
-      <c r="D15">
-        <v>15.24</v>
-      </c>
-      <c r="E15">
-        <v>5335</v>
-      </c>
-      <c r="F15">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>3.02</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>14.8</v>
-      </c>
-      <c r="E16">
-        <v>3976</v>
-      </c>
-      <c r="F16">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>15.81</v>
-      </c>
-      <c r="C17">
-        <v>41.21</v>
-      </c>
-      <c r="D17">
-        <v>34.78</v>
-      </c>
-      <c r="E17">
-        <v>3127</v>
-      </c>
-      <c r="F17">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>1.96</v>
-      </c>
-      <c r="C18">
-        <v>2.84</v>
-      </c>
-      <c r="D18">
-        <v>7.01</v>
-      </c>
-      <c r="E18">
-        <v>1738</v>
-      </c>
-      <c r="F18">
         <v>500</v>
       </c>
     </row>
@@ -1519,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A17" activeCellId="5" sqref="A2:XFD2 A6:XFD6 A9:XFD9 A10:XFD10 A12:XFD12 A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1541,27 +1178,27 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>3.49</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C2">
-        <v>2.93</v>
+        <v>15.78</v>
       </c>
       <c r="D2">
-        <v>8.31</v>
+        <v>24.09</v>
       </c>
       <c r="E2">
-        <v>1009</v>
+        <v>32976</v>
       </c>
       <c r="F2">
         <v>500</v>
@@ -1569,39 +1206,39 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.56999999999999995</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="C3">
-        <v>15.78</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>24.09</v>
+        <v>5.17</v>
       </c>
       <c r="E3">
-        <v>32976</v>
+        <v>949</v>
       </c>
       <c r="F3">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>2.5299999999999998</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3.37</v>
       </c>
       <c r="D4">
-        <v>5.17</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="E4">
-        <v>949</v>
+        <v>3576</v>
       </c>
       <c r="F4">
         <v>600</v>
@@ -1609,44 +1246,53 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>1.1299999999999999</v>
+        <v>4.12</v>
       </c>
       <c r="C5">
-        <v>3.37</v>
+        <v>4.97</v>
       </c>
       <c r="D5">
-        <v>9.1199999999999992</v>
+        <v>12.82</v>
       </c>
       <c r="E5">
-        <v>3576</v>
+        <v>1449</v>
       </c>
       <c r="F5">
-        <v>600</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.99</v>
+      </c>
+      <c r="C6">
+        <v>8.56</v>
+      </c>
+      <c r="D6">
+        <v>17.61</v>
+      </c>
+      <c r="E6">
+        <v>10420</v>
+      </c>
+      <c r="F6">
+        <v>800</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>4.12</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>4.97</v>
+        <v>10.16</v>
       </c>
       <c r="D7">
-        <v>12.82</v>
-      </c>
-      <c r="E7">
-        <v>1449</v>
+        <v>35.07</v>
       </c>
       <c r="F7">
         <v>1024</v>
@@ -1654,215 +1300,101 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.99</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="C8">
-        <v>8.56</v>
+        <v>6.73</v>
       </c>
       <c r="D8">
-        <v>17.61</v>
+        <v>15.44</v>
       </c>
       <c r="E8">
-        <v>10420</v>
+        <v>3267</v>
       </c>
       <c r="F8">
-        <v>800</v>
+        <v>700</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>2.2000000000000002</v>
+        <v>0.26</v>
       </c>
       <c r="C9">
-        <v>10.27</v>
+        <v>11.84</v>
       </c>
       <c r="D9">
-        <v>13.35</v>
+        <v>12.4</v>
       </c>
       <c r="E9">
-        <v>5594</v>
+        <v>53986</v>
       </c>
       <c r="F9">
-        <v>700</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>2.1</v>
+        <v>1.38</v>
       </c>
       <c r="C10">
-        <v>6.6</v>
+        <v>6.13</v>
       </c>
       <c r="D10">
-        <v>16.86</v>
+        <v>15.24</v>
       </c>
       <c r="E10">
-        <v>3766</v>
+        <v>5335</v>
       </c>
       <c r="F10">
-        <v>1024</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>3.02</v>
       </c>
       <c r="C11">
-        <v>10.16</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>35.07</v>
+        <v>14.85</v>
+      </c>
+      <c r="E11">
+        <v>3976</v>
       </c>
       <c r="F11">
-        <v>1024</v>
+        <v>650</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>1.31</v>
+        <v>7.31</v>
       </c>
       <c r="C12">
-        <v>1.48</v>
+        <v>10.59</v>
       </c>
       <c r="D12">
-        <v>5.17</v>
+        <v>26.16</v>
       </c>
       <c r="E12">
-        <v>1359</v>
+        <v>1738</v>
       </c>
       <c r="F12">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="C13">
-        <v>6.73</v>
-      </c>
-      <c r="D13">
-        <v>15.44</v>
-      </c>
-      <c r="E13">
-        <v>3267</v>
-      </c>
-      <c r="F13">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>0.26</v>
-      </c>
-      <c r="C14">
-        <v>11.84</v>
-      </c>
-      <c r="D14">
-        <v>12.4</v>
-      </c>
-      <c r="E14">
-        <v>53986</v>
-      </c>
-      <c r="F14">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>1.38</v>
-      </c>
-      <c r="C15">
-        <v>6.13</v>
-      </c>
-      <c r="D15">
-        <v>15.24</v>
-      </c>
-      <c r="E15">
-        <v>5335</v>
-      </c>
-      <c r="F15">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>3.02</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>14.85</v>
-      </c>
-      <c r="E16">
-        <v>3976</v>
-      </c>
-      <c r="F16">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>15.81</v>
-      </c>
-      <c r="C17">
-        <v>41.21</v>
-      </c>
-      <c r="D17">
-        <v>34.78</v>
-      </c>
-      <c r="E17">
-        <v>3127</v>
-      </c>
-      <c r="F17">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>7.31</v>
-      </c>
-      <c r="C18">
-        <v>10.59</v>
-      </c>
-      <c r="D18">
-        <v>26.16</v>
-      </c>
-      <c r="E18">
-        <v>1738</v>
-      </c>
-      <c r="F18">
         <v>4200</v>
       </c>
     </row>
@@ -1873,10 +1405,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1895,172 +1427,181 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>5.28</v>
+        <v>0.8</v>
       </c>
       <c r="C2">
-        <v>4.4400000000000004</v>
+        <v>22.1</v>
       </c>
       <c r="D2">
-        <v>12.59</v>
+        <v>33.72</v>
       </c>
       <c r="E2">
-        <v>1009</v>
+        <v>32976</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>3.15</v>
       </c>
       <c r="C3">
-        <v>22.1</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="D3">
-        <v>33.72</v>
+        <v>6.44</v>
       </c>
       <c r="E3">
-        <v>32976</v>
+        <v>949</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>3.15</v>
+        <v>1.56</v>
       </c>
       <c r="C4">
-        <v>2.4900000000000002</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="D4">
-        <v>6.44</v>
+        <v>12.54</v>
       </c>
       <c r="E4">
-        <v>949</v>
+        <v>3576</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>1.56</v>
+        <v>5.15</v>
       </c>
       <c r="C5">
-        <v>4.6399999999999997</v>
+        <v>6.21</v>
       </c>
       <c r="D5">
-        <v>12.54</v>
+        <v>16.02</v>
       </c>
       <c r="E5">
-        <v>3576</v>
+        <v>1449</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>1.69</v>
+      </c>
+      <c r="C6">
+        <v>14.67</v>
+      </c>
+      <c r="D6">
+        <v>30.2</v>
+      </c>
+      <c r="E6">
+        <v>10420</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>5.15</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>6.21</v>
+        <v>10.16</v>
       </c>
       <c r="D7">
-        <v>16.02</v>
-      </c>
-      <c r="E7">
-        <v>1449</v>
+        <v>35.07</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>1.69</v>
+        <v>8.27</v>
       </c>
       <c r="C8">
-        <v>14.67</v>
+        <v>22.5</v>
       </c>
       <c r="D8">
-        <v>30.2</v>
+        <v>51.59</v>
       </c>
       <c r="E8">
-        <v>10420</v>
+        <v>3267</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>3.7</v>
+        <v>0.35</v>
       </c>
       <c r="C9">
-        <v>17.23</v>
+        <v>15.71</v>
       </c>
       <c r="D9">
-        <v>22.41</v>
+        <v>16.45</v>
       </c>
       <c r="E9">
-        <v>5594</v>
+        <v>53986</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>2.1</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="C10">
-        <v>6.6</v>
+        <v>11.05</v>
       </c>
       <c r="D10">
-        <v>16.86</v>
+        <v>27.5</v>
       </c>
       <c r="E10">
-        <v>3766</v>
+        <v>5335</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2068,13 +1609,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>3.77</v>
       </c>
       <c r="C11">
-        <v>10.16</v>
+        <v>12.5</v>
       </c>
       <c r="D11">
-        <v>35.07</v>
+        <v>18.559999999999999</v>
+      </c>
+      <c r="E11">
+        <v>3976</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2082,141 +1629,21 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>10.47</v>
+        <v>3.92</v>
       </c>
       <c r="C12">
-        <v>11.86</v>
+        <v>5.67</v>
       </c>
       <c r="D12">
-        <v>41.36</v>
+        <v>14.02</v>
       </c>
       <c r="E12">
-        <v>1359</v>
+        <v>1738</v>
       </c>
       <c r="F12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>8.27</v>
-      </c>
-      <c r="C13">
-        <v>22.5</v>
-      </c>
-      <c r="D13">
-        <v>51.59</v>
-      </c>
-      <c r="E13">
-        <v>3267</v>
-      </c>
-      <c r="F13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>0.35</v>
-      </c>
-      <c r="C14">
-        <v>15.71</v>
-      </c>
-      <c r="D14">
-        <v>16.45</v>
-      </c>
-      <c r="E14">
-        <v>53986</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="C15">
-        <v>11.05</v>
-      </c>
-      <c r="D15">
-        <v>27.5</v>
-      </c>
-      <c r="E15">
-        <v>5335</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>3.77</v>
-      </c>
-      <c r="C16">
-        <v>12.5</v>
-      </c>
-      <c r="D16">
-        <v>18.559999999999999</v>
-      </c>
-      <c r="E16">
-        <v>3976</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>15.81</v>
-      </c>
-      <c r="C17">
-        <v>41.21</v>
-      </c>
-      <c r="D17">
-        <v>34.78</v>
-      </c>
-      <c r="E17">
-        <v>3127</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>3.92</v>
-      </c>
-      <c r="C18">
-        <v>5.67</v>
-      </c>
-      <c r="D18">
-        <v>14.02</v>
-      </c>
-      <c r="E18">
-        <v>1738</v>
-      </c>
-      <c r="F18">
         <v>2</v>
       </c>
     </row>
@@ -2227,10 +1654,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2249,27 +1676,27 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>5.28</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C2">
-        <v>4.4400000000000004</v>
+        <v>15.78</v>
       </c>
       <c r="D2">
-        <v>12.59</v>
+        <v>24.09</v>
       </c>
       <c r="E2">
-        <v>1009</v>
+        <v>32976</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2277,19 +1704,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.56999999999999995</v>
+        <v>3.16</v>
       </c>
       <c r="C3">
-        <v>15.78</v>
+        <v>2.5</v>
       </c>
       <c r="D3">
-        <v>24.09</v>
+        <v>6.46</v>
       </c>
       <c r="E3">
-        <v>32976</v>
+        <v>949</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2297,84 +1724,93 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>3.16</v>
+        <v>2.12</v>
       </c>
       <c r="C4">
-        <v>2.5</v>
+        <v>6.32</v>
       </c>
       <c r="D4">
-        <v>6.46</v>
+        <v>17.11</v>
       </c>
       <c r="E4">
-        <v>949</v>
+        <v>3576</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>2.12</v>
+        <v>5.15</v>
       </c>
       <c r="C5">
-        <v>6.32</v>
+        <v>6.21</v>
       </c>
       <c r="D5">
-        <v>17.11</v>
+        <v>16.02</v>
       </c>
       <c r="E5">
-        <v>3576</v>
+        <v>1449</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>1.69</v>
+      </c>
+      <c r="C6">
+        <v>14.67</v>
+      </c>
+      <c r="D6">
+        <v>30.2</v>
+      </c>
+      <c r="E6">
+        <v>10420</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>5.15</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>6.21</v>
+        <v>10.16</v>
       </c>
       <c r="D7">
-        <v>16.02</v>
-      </c>
-      <c r="E7">
-        <v>1449</v>
+        <v>35.07</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>1.69</v>
+        <v>4.13</v>
       </c>
       <c r="C8">
-        <v>14.67</v>
+        <v>11.24</v>
       </c>
       <c r="D8">
-        <v>30.2</v>
+        <v>25.77</v>
       </c>
       <c r="E8">
-        <v>10420</v>
+        <v>3267</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -2382,39 +1818,39 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>2.96</v>
+        <v>0.49</v>
       </c>
       <c r="C9">
-        <v>13.78</v>
+        <v>22.1</v>
       </c>
       <c r="D9">
-        <v>17.93</v>
+        <v>23.14</v>
       </c>
       <c r="E9">
-        <v>5594</v>
+        <v>53986</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>2.1</v>
+        <v>2.76</v>
       </c>
       <c r="C10">
-        <v>6.6</v>
+        <v>12.28</v>
       </c>
       <c r="D10">
-        <v>16.86</v>
+        <v>30.56</v>
       </c>
       <c r="E10">
-        <v>3766</v>
+        <v>5335</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2422,13 +1858,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>4.53</v>
+      </c>
+      <c r="C11">
         <v>15</v>
       </c>
-      <c r="C11">
-        <v>10.16</v>
-      </c>
       <c r="D11">
-        <v>35.07</v>
+        <v>22.27</v>
+      </c>
+      <c r="E11">
+        <v>3976</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2436,141 +1878,21 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>8.74</v>
+        <v>3.92</v>
       </c>
       <c r="C12">
-        <v>9.89</v>
+        <v>5.67</v>
       </c>
       <c r="D12">
-        <v>34.5</v>
+        <v>14.02</v>
       </c>
       <c r="E12">
-        <v>1359</v>
+        <v>1738</v>
       </c>
       <c r="F12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>4.13</v>
-      </c>
-      <c r="C13">
-        <v>11.24</v>
-      </c>
-      <c r="D13">
-        <v>25.77</v>
-      </c>
-      <c r="E13">
-        <v>3267</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>0.49</v>
-      </c>
-      <c r="C14">
-        <v>22.1</v>
-      </c>
-      <c r="D14">
-        <v>23.14</v>
-      </c>
-      <c r="E14">
-        <v>53986</v>
-      </c>
-      <c r="F14">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>2.76</v>
-      </c>
-      <c r="C15">
-        <v>12.28</v>
-      </c>
-      <c r="D15">
-        <v>30.56</v>
-      </c>
-      <c r="E15">
-        <v>5335</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>4.53</v>
-      </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-      <c r="D16">
-        <v>22.27</v>
-      </c>
-      <c r="E16">
-        <v>3976</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>29.26</v>
-      </c>
-      <c r="C17">
-        <v>76.23</v>
-      </c>
-      <c r="D17">
-        <v>64.34</v>
-      </c>
-      <c r="E17">
-        <v>3127</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>3.92</v>
-      </c>
-      <c r="C18">
-        <v>5.67</v>
-      </c>
-      <c r="D18">
-        <v>14.02</v>
-      </c>
-      <c r="E18">
-        <v>1738</v>
-      </c>
-      <c r="F18">
         <v>2</v>
       </c>
     </row>
